--- a/dynamoDBTables.xlsx
+++ b/dynamoDBTables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sam/NUIGfiles/FYP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA17F6B1-F035-7140-BD13-382F8AF4F01B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD73A3A-4F91-F747-B38C-52CF0F5D5491}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2000" yWindow="1020" windowWidth="25440" windowHeight="15000" xr2:uid="{6EDF2268-0D8B-4545-B6C4-C83C809A5414}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>deviceId</t>
   </si>
@@ -79,6 +79,12 @@
   </si>
   <si>
     <t>deviceName1</t>
+  </si>
+  <si>
+    <t>latitudeEstimationError</t>
+  </si>
+  <si>
+    <t>longitudeEstimationError</t>
   </si>
 </sst>
 </file>
@@ -102,7 +108,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -162,23 +168,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -187,6 +227,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -502,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A7E2234-16A4-BD4D-8411-CFBBE8A88E29}">
-  <dimension ref="A3:G13"/>
+  <dimension ref="A3:S10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A3" sqref="A3:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -513,55 +565,100 @@
     <col min="1" max="1" width="3.6640625" customWidth="1"/>
     <col min="2" max="2" width="12.83203125" customWidth="1"/>
     <col min="3" max="3" width="13.1640625" customWidth="1"/>
-    <col min="4" max="4" width="16.83203125" customWidth="1"/>
-    <col min="6" max="6" width="23.5" customWidth="1"/>
+    <col min="4" max="4" width="9.5" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="20.5" customWidth="1"/>
+    <col min="7" max="7" width="21.83203125" customWidth="1"/>
+    <col min="8" max="8" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
       <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="2"/>
+      <c r="N3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
-      <c r="B4" s="5" t="s">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" s="6"/>
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
       <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="2"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
-      <c r="B5" s="5" t="s">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="6"/>
+      <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="5" t="s">
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="4"/>
+      <c r="I5" s="2"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="R5" s="8"/>
+      <c r="S5" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" s="7"/>
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -575,79 +672,42 @@
         <v>11</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="4"/>
+      <c r="I6" s="2"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="10" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
-      <c r="B11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
-      <c r="B12" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
-      <c r="B13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
+    <row r="10" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="D10:F11"/>
+    <mergeCell ref="Q3:S4"/>
     <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="C3:F4"/>
+    <mergeCell ref="N3:N6"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="C3:H4"/>
+    <mergeCell ref="D5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
